--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H2">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I2">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J2">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>46.30336083150867</v>
+        <v>29.442160729512</v>
       </c>
       <c r="R2">
-        <v>416.730247483578</v>
+        <v>264.979446565608</v>
       </c>
       <c r="S2">
-        <v>0.09078777319161141</v>
+        <v>0.09168274943280867</v>
       </c>
       <c r="T2">
-        <v>0.1071423406249714</v>
+        <v>0.1049008652074765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H3">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I3">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J3">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>24.14997685663267</v>
+        <v>22.98774181960622</v>
       </c>
       <c r="R3">
-        <v>217.349791709694</v>
+        <v>206.889676376456</v>
       </c>
       <c r="S3">
-        <v>0.04735126310638462</v>
+        <v>0.07158371943674895</v>
       </c>
       <c r="T3">
-        <v>0.05588114987752189</v>
+        <v>0.08190411118928606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H4">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I4">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J4">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>33.549580355767</v>
+        <v>18.02106678610867</v>
       </c>
       <c r="R4">
-        <v>201.297482134602</v>
+        <v>108.126400716652</v>
       </c>
       <c r="S4">
-        <v>0.06578122273017464</v>
+        <v>0.05611751684401924</v>
       </c>
       <c r="T4">
-        <v>0.05175406279733637</v>
+        <v>0.04280540673609838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.213251666666667</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H5">
-        <v>6.639755</v>
+        <v>4.523852</v>
       </c>
       <c r="I5">
-        <v>0.2848942161400975</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J5">
-        <v>0.3000627940718238</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>64.68979468549223</v>
+        <v>0.4105772677666666</v>
       </c>
       <c r="R5">
-        <v>582.20815216943</v>
+        <v>3.6951954099</v>
       </c>
       <c r="S5">
-        <v>0.1268383612388211</v>
+        <v>0.001278535672340323</v>
       </c>
       <c r="T5">
-        <v>0.1496871046223502</v>
+        <v>0.001462865141554404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>6.639755</v>
       </c>
       <c r="I6">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J6">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>33.73960370176556</v>
+        <v>43.21289332953</v>
       </c>
       <c r="R6">
-        <v>303.65643331589</v>
+        <v>388.91603996577</v>
       </c>
       <c r="S6">
-        <v>0.06615380467947213</v>
+        <v>0.1345647456990721</v>
       </c>
       <c r="T6">
-        <v>0.07807079329555282</v>
+        <v>0.1539652588691381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>6.639755</v>
       </c>
       <c r="I7">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J7">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.177737</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N7">
-        <v>42.355474</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O7">
-        <v>0.3225830677328007</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P7">
-        <v>0.2409658830831714</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q7">
-        <v>46.87166171147834</v>
+        <v>33.73960370176556</v>
       </c>
       <c r="R7">
-        <v>281.22997026887</v>
+        <v>303.6564333158901</v>
       </c>
       <c r="S7">
-        <v>0.09190205022180423</v>
+        <v>0.1050649665481433</v>
       </c>
       <c r="T7">
-        <v>0.07230489615392086</v>
+        <v>0.1202124277694359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.261258666666667</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H8">
-        <v>3.783776</v>
+        <v>6.639755</v>
       </c>
       <c r="I8">
-        <v>0.1623517580949468</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J8">
-        <v>0.1709958272107795</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.22839533333334</v>
+        <v>11.9507005</v>
       </c>
       <c r="N8">
-        <v>87.685186</v>
+        <v>23.901401</v>
       </c>
       <c r="O8">
-        <v>0.4452121315669254</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P8">
-        <v>0.498852598788108</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q8">
-        <v>36.86456692692622</v>
+        <v>26.44990779945917</v>
       </c>
       <c r="R8">
-        <v>331.7811023423359</v>
+        <v>158.699446796755</v>
       </c>
       <c r="S8">
-        <v>0.07228097228508908</v>
+        <v>0.08236488794342985</v>
       </c>
       <c r="T8">
-        <v>0.08530171278601964</v>
+        <v>0.06282641726631263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.261258666666667</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H9">
-        <v>3.783776</v>
+        <v>6.639755</v>
       </c>
       <c r="I9">
-        <v>0.1623517580949468</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J9">
-        <v>0.1709958272107795</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.24435933333333</v>
+        <v>0.272275</v>
       </c>
       <c r="N9">
-        <v>45.733078</v>
+        <v>0.816825</v>
       </c>
       <c r="O9">
-        <v>0.232204800700274</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P9">
-        <v>0.2601815181287207</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q9">
-        <v>19.22708032694755</v>
+        <v>0.6026130975416667</v>
       </c>
       <c r="R9">
-        <v>173.043722942528</v>
+        <v>5.423517877875001</v>
       </c>
       <c r="S9">
-        <v>0.03769885763177621</v>
+        <v>0.001876534339120737</v>
       </c>
       <c r="T9">
-        <v>0.04448995391737703</v>
+        <v>0.002147078670558091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H10">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I10">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J10">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.177737</v>
+        <v>19.524618</v>
       </c>
       <c r="N10">
-        <v>42.355474</v>
+        <v>58.573854</v>
       </c>
       <c r="O10">
-        <v>0.3225830677328007</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P10">
-        <v>0.2409658830831714</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q10">
-        <v>26.71060433163733</v>
+        <v>25.379185346802</v>
       </c>
       <c r="R10">
-        <v>160.263625989824</v>
+        <v>228.412668121218</v>
       </c>
       <c r="S10">
-        <v>0.05237192817808149</v>
+        <v>0.07903066328373462</v>
       </c>
       <c r="T10">
-        <v>0.04120416050738288</v>
+        <v>0.0904246982957275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.1781515</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H11">
-        <v>2.356303</v>
+        <v>3.899567</v>
       </c>
       <c r="I11">
-        <v>0.1516540360691531</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J11">
-        <v>0.106485685369388</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.22839533333334</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N11">
-        <v>87.685186</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O11">
-        <v>0.4452121315669254</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P11">
-        <v>0.498852598788108</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q11">
-        <v>34.43547780455966</v>
+        <v>19.81546686413623</v>
       </c>
       <c r="R11">
-        <v>206.612866827358</v>
+        <v>178.339201777226</v>
       </c>
       <c r="S11">
-        <v>0.06751821665907504</v>
+        <v>0.06170527021060918</v>
       </c>
       <c r="T11">
-        <v>0.053120660880252</v>
+        <v>0.07060146290331132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.299855666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.899567</v>
+      </c>
+      <c r="I12">
+        <v>0.190211414195981</v>
+      </c>
+      <c r="J12">
+        <v>0.1991854759071952</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.1781515</v>
-      </c>
-      <c r="H12">
-        <v>2.356303</v>
-      </c>
-      <c r="I12">
-        <v>0.1516540360691531</v>
-      </c>
-      <c r="J12">
-        <v>0.106485685369388</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.24435933333333</v>
+        <v>11.9507005</v>
       </c>
       <c r="N12">
-        <v>45.733078</v>
+        <v>23.901401</v>
       </c>
       <c r="O12">
-        <v>0.232204800700274</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P12">
-        <v>0.2601815181287207</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q12">
-        <v>17.96016481510566</v>
+        <v>15.53418576556117</v>
       </c>
       <c r="R12">
-        <v>107.760988890634</v>
+        <v>93.205114593367</v>
       </c>
       <c r="S12">
-        <v>0.03521479522082987</v>
+        <v>0.04837338109356397</v>
       </c>
       <c r="T12">
-        <v>0.02770560727838467</v>
+        <v>0.03689832282967413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.1781515</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H13">
-        <v>2.356303</v>
+        <v>3.899567</v>
       </c>
       <c r="I13">
-        <v>0.1516540360691531</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J13">
-        <v>0.106485685369388</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>21.177737</v>
+        <v>0.272275</v>
       </c>
       <c r="N13">
-        <v>42.355474</v>
+        <v>0.816825</v>
       </c>
       <c r="O13">
-        <v>0.3225830677328007</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P13">
-        <v>0.2409658830831714</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q13">
-        <v>24.9505826131555</v>
+        <v>0.3539182016416667</v>
       </c>
       <c r="R13">
-        <v>99.80233045262199</v>
+        <v>3.185263814775</v>
       </c>
       <c r="S13">
-        <v>0.04892102418924822</v>
+        <v>0.001102099608073195</v>
       </c>
       <c r="T13">
-        <v>0.02565941721075132</v>
+        <v>0.001260991878482294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.531826</v>
+        <v>0.923658</v>
       </c>
       <c r="H14">
-        <v>4.595478</v>
+        <v>1.847316</v>
       </c>
       <c r="I14">
-        <v>0.1971797306676319</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J14">
-        <v>0.207678140048179</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N14">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O14">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P14">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q14">
-        <v>44.77281590987867</v>
+        <v>18.034069612644</v>
       </c>
       <c r="R14">
-        <v>402.955343188908</v>
+        <v>108.204417675864</v>
       </c>
       <c r="S14">
-        <v>0.08778680819232866</v>
+        <v>0.05615800758442752</v>
       </c>
       <c r="T14">
-        <v>0.1036007798745148</v>
+        <v>0.04283629232601213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.531826</v>
+        <v>0.923658</v>
       </c>
       <c r="H15">
-        <v>4.595478</v>
+        <v>1.847316</v>
       </c>
       <c r="I15">
-        <v>0.1971797306676319</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J15">
-        <v>0.207678140048179</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N15">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O15">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P15">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q15">
-        <v>23.35170598014266</v>
+        <v>14.080574453108</v>
       </c>
       <c r="R15">
-        <v>210.165353821284</v>
+        <v>84.48344671864801</v>
       </c>
       <c r="S15">
-        <v>0.04578608006181119</v>
+        <v>0.04384684233315457</v>
       </c>
       <c r="T15">
-        <v>0.05403401375988429</v>
+        <v>0.03344556255725147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.531826</v>
+        <v>0.923658</v>
       </c>
       <c r="H16">
-        <v>4.595478</v>
+        <v>1.847316</v>
       </c>
       <c r="I16">
-        <v>0.1971797306676319</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J16">
-        <v>0.207678140048179</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N16">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O16">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P16">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q16">
-        <v>32.440608157762</v>
+        <v>11.038360122429</v>
       </c>
       <c r="R16">
-        <v>194.643648946572</v>
+        <v>44.153440489716</v>
       </c>
       <c r="S16">
-        <v>0.06360684241349211</v>
+        <v>0.03437340127823355</v>
       </c>
       <c r="T16">
-        <v>0.05004334641378001</v>
+        <v>0.01747959764159002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.923658</v>
+      </c>
+      <c r="H17">
+        <v>1.847316</v>
+      </c>
+      <c r="I17">
+        <v>0.1351613866976242</v>
+      </c>
+      <c r="J17">
+        <v>0.09435881384035105</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.272275</v>
+      </c>
+      <c r="N17">
+        <v>0.816825</v>
+      </c>
+      <c r="O17">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P17">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q17">
+        <v>0.25148898195</v>
+      </c>
+      <c r="R17">
+        <v>1.5089338917</v>
+      </c>
+      <c r="S17">
+        <v>0.0007831355018085373</v>
+      </c>
+      <c r="T17">
+        <v>0.0005973613154974378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8890256666666666</v>
+      </c>
+      <c r="H18">
+        <v>2.667077</v>
+      </c>
+      <c r="I18">
+        <v>0.1300935431907118</v>
+      </c>
+      <c r="J18">
+        <v>0.1362312794025938</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.524618</v>
+      </c>
+      <c r="N18">
+        <v>58.573854</v>
+      </c>
+      <c r="O18">
+        <v>0.4154885426712971</v>
+      </c>
+      <c r="P18">
+        <v>0.4539723485554654</v>
+      </c>
+      <c r="Q18">
+        <v>17.357886533862</v>
+      </c>
+      <c r="R18">
+        <v>156.220978804758</v>
+      </c>
+      <c r="S18">
+        <v>0.05405237667125428</v>
+      </c>
+      <c r="T18">
+        <v>0.06184523385711131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8890256666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.667077</v>
+      </c>
+      <c r="I19">
+        <v>0.1300935431907118</v>
+      </c>
+      <c r="J19">
+        <v>0.1362312794025938</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N19">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O19">
+        <v>0.324403614112412</v>
+      </c>
+      <c r="P19">
+        <v>0.3544508583357054</v>
+      </c>
+      <c r="Q19">
+        <v>13.55262671922289</v>
+      </c>
+      <c r="R19">
+        <v>121.973640473006</v>
+      </c>
+      <c r="S19">
+        <v>0.04220281558375606</v>
+      </c>
+      <c r="T19">
+        <v>0.04828729391642068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8890256666666666</v>
+      </c>
+      <c r="H20">
+        <v>2.667077</v>
+      </c>
+      <c r="I20">
+        <v>0.1300935431907118</v>
+      </c>
+      <c r="J20">
+        <v>0.1362312794025938</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.9507005</v>
+      </c>
+      <c r="N20">
+        <v>23.901401</v>
+      </c>
+      <c r="O20">
+        <v>0.2543137660693869</v>
+      </c>
+      <c r="P20">
+        <v>0.1852460510065796</v>
+      </c>
+      <c r="Q20">
+        <v>10.62447947914617</v>
+      </c>
+      <c r="R20">
+        <v>63.746876874877</v>
+      </c>
+      <c r="S20">
+        <v>0.03308457891014036</v>
+      </c>
+      <c r="T20">
+        <v>0.02523630653290449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8890256666666666</v>
+      </c>
+      <c r="H21">
+        <v>2.667077</v>
+      </c>
+      <c r="I21">
+        <v>0.1300935431907118</v>
+      </c>
+      <c r="J21">
+        <v>0.1362312794025938</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.272275</v>
+      </c>
+      <c r="N21">
+        <v>0.816825</v>
+      </c>
+      <c r="O21">
+        <v>0.005794077146903843</v>
+      </c>
+      <c r="P21">
+        <v>0.006330742102249548</v>
+      </c>
+      <c r="Q21">
+        <v>0.2420594633916666</v>
+      </c>
+      <c r="R21">
+        <v>2.178535170525</v>
+      </c>
+      <c r="S21">
+        <v>0.0007537720255610511</v>
+      </c>
+      <c r="T21">
+        <v>0.0008624450961573222</v>
       </c>
     </row>
   </sheetData>
